--- a/biology/Médecine/1144_en_santé_et_médecine/1144_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1144_en_santé_et_médecine/1144_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1144_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1144_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1144_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1144_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,11 +518,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>« Henri de Fontenay, atteint de la lèpre, fait don à l'ordre de Saint-Lazare de tout ce qu'il possède en sa terre et seigneurie », acte qui peut être tenu pour fondateur de la maladrerie du lieu, qui disparaîtra au XVIIIe siècle[1].
-À St Andrews, en Écosse, un hôpital ayant appartenu aux Céli Dé est érigé par l'évêque Robert de Scone en un prieuré qui sera placé plus tard sous le patronage de saint Léonard et qui, « peu fréquenté en raison du déclin des pèlerinages, servira de résidence pour les femmes âgées[2] ».
-Avant 1144 : fondation à Saint-Satur, près Sancerre, dans le comté de Champagne, d'un hospice desservi par des chanoines réguliers[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>« Henri de Fontenay, atteint de la lèpre, fait don à l'ordre de Saint-Lazare de tout ce qu'il possède en sa terre et seigneurie », acte qui peut être tenu pour fondateur de la maladrerie du lieu, qui disparaîtra au XVIIIe siècle.
+À St Andrews, en Écosse, un hôpital ayant appartenu aux Céli Dé est érigé par l'évêque Robert de Scone en un prieuré qui sera placé plus tard sous le patronage de saint Léonard et qui, « peu fréquenté en raison du déclin des pèlerinages, servira de résidence pour les femmes âgées ».
+Avant 1144 : fondation à Saint-Satur, près Sancerre, dans le comté de Champagne, d'un hospice desservi par des chanoines réguliers.</t>
         </is>
       </c>
     </row>
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1144_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1144_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,10 +552,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean de Séville traduit le Liber introductorius (v. 948-949) d'Alcabitius, « introduction à la science de l'horoscope des naissances, [qui sera] plusieurs fois commenté[4] » et qui contient « des préceptes concernant la saignée selon la position de la lune[5] ».
-En Chine, le Shanghan Lun (« Traité du froid nocif »), de Zhang Zhongjing (alias Zhang Ji (142/169- 210/220), est remanié en dix chapitres et annoté par Cheng Wuji et publié sous le titre de Zhujie shanghanlun[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jean de Séville traduit le Liber introductorius (v. 948-949) d'Alcabitius, « introduction à la science de l'horoscope des naissances, [qui sera] plusieurs fois commenté » et qui contient « des préceptes concernant la saignée selon la position de la lune ».
+En Chine, le Shanghan Lun (« Traité du froid nocif »), de Zhang Zhongjing (alias Zhang Ji (142/169- 210/220), est remanié en dix chapitres et annoté par Cheng Wuji et publié sous le titre de Zhujie shanghanlun.</t>
         </is>
       </c>
     </row>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1144_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1144_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,9 +585,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Pierre, médecin, à qui le chapitre de Nice concède une terre à Cimiez[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Pierre, médecin, à qui le chapitre de Nice concède une terre à Cimiez.</t>
         </is>
       </c>
     </row>
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1144_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1144_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,9 +617,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Premier exemple connu de l'emploi du mot « gafo » (« gaffet » ou « gahet ») en langue d'oc « pour dire « lépreux » de façon univoque, à partir peut-être du sens primitif de griffe ou de crochet [et] appliqué aux ladres à cause de leurs mains estropiées ou recroquevillées[8] ».</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Premier exemple connu de l'emploi du mot « gafo » (« gaffet » ou « gahet ») en langue d'oc « pour dire « lépreux » de façon univoque, à partir peut-être du sens primitif de griffe ou de crochet [et] appliqué aux ladres à cause de leurs mains estropiées ou recroquevillées ».</t>
         </is>
       </c>
     </row>
